--- a/biology/Zoologie/Involvulus/Involvulus.xlsx
+++ b/biology/Zoologie/Involvulus/Involvulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Involvulus est un genre d'insectes curculionoïdes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes), de la famille des Attelabidae (ou des Rhynchitidae selon les classifications).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 aout 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 aout 2021) :
 sous-genre Involvulus Schrank, 1798
 Involvulus baojiensis Legalov, 2007
 Involvulus cupreus (Linnaeus, 1758)
@@ -551,7 +565,7 @@
 Involvulus szechuanensis Voss, 1956
 Involvulus xiahensis (Legalov, 2007)
 Involvulus zhondiensis (Legalov, 2007)
-Selon ITIS      (21 aout 2021)[2], espèce :
+Selon ITIS      (21 aout 2021), espèce :
 Involvulus hirtus (Fabricius, 1801)</t>
         </is>
       </c>
